--- a/data/pca/factorExposure/factorExposure_2016-04-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01248870073432726</v>
+        <v>0.0159097521872108</v>
       </c>
       <c r="C2">
-        <v>-0.05174403354344451</v>
+        <v>0.03890385684105047</v>
       </c>
       <c r="D2">
-        <v>0.04228530485609986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06727132811622685</v>
+      </c>
+      <c r="E2">
+        <v>-0.1015146733900434</v>
+      </c>
+      <c r="F2">
+        <v>-0.07638436404016997</v>
+      </c>
+      <c r="G2">
+        <v>0.02376987428135485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04219452091209504</v>
+        <v>0.02610811633381161</v>
       </c>
       <c r="C3">
-        <v>-0.1213549123006036</v>
+        <v>0.06581284066479351</v>
       </c>
       <c r="D3">
-        <v>0.08537145990474715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0753116576576843</v>
+      </c>
+      <c r="E3">
+        <v>-0.06761481118367832</v>
+      </c>
+      <c r="F3">
+        <v>0.0309831159170016</v>
+      </c>
+      <c r="G3">
+        <v>0.04188914361004088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0624657118440664</v>
+        <v>0.06049362481911742</v>
       </c>
       <c r="C4">
-        <v>-0.06587058668446794</v>
+        <v>0.06478114381383544</v>
       </c>
       <c r="D4">
-        <v>0.03265365846138879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06225854962306019</v>
+      </c>
+      <c r="E4">
+        <v>-0.09930752293108266</v>
+      </c>
+      <c r="F4">
+        <v>-0.03142684788350424</v>
+      </c>
+      <c r="G4">
+        <v>0.07854713174023066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03968195207065912</v>
+        <v>0.03716038741270825</v>
       </c>
       <c r="C6">
-        <v>-0.03702932398953903</v>
+        <v>0.02767189906261635</v>
       </c>
       <c r="D6">
-        <v>0.03456417909441255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06765508608067598</v>
+      </c>
+      <c r="E6">
+        <v>-0.09258301890651993</v>
+      </c>
+      <c r="F6">
+        <v>-0.02248116014235088</v>
+      </c>
+      <c r="G6">
+        <v>0.05679760130983884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02671723483836198</v>
+        <v>0.02120028368780187</v>
       </c>
       <c r="C7">
-        <v>-0.04086928894711143</v>
+        <v>0.03658703352495705</v>
       </c>
       <c r="D7">
-        <v>-0.001894118891414296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04305610686489465</v>
+      </c>
+      <c r="E7">
+        <v>-0.07638274768797546</v>
+      </c>
+      <c r="F7">
+        <v>-0.05929370603377766</v>
+      </c>
+      <c r="G7">
+        <v>0.09794066305987734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.007955329836939168</v>
+        <v>0.007315356201552178</v>
       </c>
       <c r="C8">
-        <v>-0.03948286028636287</v>
+        <v>0.03406521064655768</v>
       </c>
       <c r="D8">
-        <v>0.02944250360109244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03992541809180334</v>
+      </c>
+      <c r="E8">
+        <v>-0.0609390668904725</v>
+      </c>
+      <c r="F8">
+        <v>-0.01196699228525104</v>
+      </c>
+      <c r="G8">
+        <v>0.03445090520318752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03950851454319967</v>
+        <v>0.04130194880470152</v>
       </c>
       <c r="C9">
-        <v>-0.04697733864669695</v>
+        <v>0.05087220231400001</v>
       </c>
       <c r="D9">
-        <v>0.01651593158561095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04450098127714755</v>
+      </c>
+      <c r="E9">
+        <v>-0.07711085628919266</v>
+      </c>
+      <c r="F9">
+        <v>-0.04853530567034272</v>
+      </c>
+      <c r="G9">
+        <v>0.07778343706874999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07224136996847119</v>
+        <v>0.0995848939146045</v>
       </c>
       <c r="C10">
-        <v>0.1928857067452175</v>
+        <v>-0.2019562659623193</v>
       </c>
       <c r="D10">
-        <v>-0.004587149541962656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01240985063967777</v>
+      </c>
+      <c r="E10">
+        <v>-0.03391911863347291</v>
+      </c>
+      <c r="F10">
+        <v>-0.0168411474500629</v>
+      </c>
+      <c r="G10">
+        <v>0.04099548417681918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04324696053498412</v>
+        <v>0.03775066187541198</v>
       </c>
       <c r="C11">
-        <v>-0.05112304510144169</v>
+        <v>0.04751072031997824</v>
       </c>
       <c r="D11">
-        <v>0.01567256970879927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03323980929736883</v>
+      </c>
+      <c r="E11">
+        <v>-0.03327417486859102</v>
+      </c>
+      <c r="F11">
+        <v>-0.03324870513131045</v>
+      </c>
+      <c r="G11">
+        <v>0.06827691552588537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04624641666208978</v>
+        <v>0.04006454417172833</v>
       </c>
       <c r="C12">
-        <v>-0.04569358240887916</v>
+        <v>0.04548375314780096</v>
       </c>
       <c r="D12">
-        <v>0.003643866907750279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02864974449047434</v>
+      </c>
+      <c r="E12">
+        <v>-0.04112453345882576</v>
+      </c>
+      <c r="F12">
+        <v>-0.03481778731148367</v>
+      </c>
+      <c r="G12">
+        <v>0.06404779800169755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01597411298699522</v>
+        <v>0.01424323580371259</v>
       </c>
       <c r="C13">
-        <v>-0.0533285020869212</v>
+        <v>0.04192330852863882</v>
       </c>
       <c r="D13">
-        <v>0.01130636615935375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05191814616741471</v>
+      </c>
+      <c r="E13">
+        <v>-0.110036725208554</v>
+      </c>
+      <c r="F13">
+        <v>-0.05072405635431936</v>
+      </c>
+      <c r="G13">
+        <v>0.09053472188523351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01026372180011969</v>
+        <v>0.007338077839385512</v>
       </c>
       <c r="C14">
-        <v>-0.03594653892429173</v>
+        <v>0.03051133339950705</v>
       </c>
       <c r="D14">
-        <v>-0.0004745915237750236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02936365642935851</v>
+      </c>
+      <c r="E14">
+        <v>-0.06392777573269537</v>
+      </c>
+      <c r="F14">
+        <v>-0.06747974922298687</v>
+      </c>
+      <c r="G14">
+        <v>0.07755668312920108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001217080756931628</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006249751605215249</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008887864459394884</v>
+      </c>
+      <c r="E15">
+        <v>-0.006167896306147921</v>
+      </c>
+      <c r="F15">
+        <v>-0.005234111888978197</v>
+      </c>
+      <c r="G15">
+        <v>0.007032416600678174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04092826849059018</v>
+        <v>0.03591713422203668</v>
       </c>
       <c r="C16">
-        <v>-0.04804802104582759</v>
+        <v>0.04455403473065073</v>
       </c>
       <c r="D16">
-        <v>0.005804857671865519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02774846348535994</v>
+      </c>
+      <c r="E16">
+        <v>-0.04823937117483748</v>
+      </c>
+      <c r="F16">
+        <v>-0.04544076537319761</v>
+      </c>
+      <c r="G16">
+        <v>0.05519199812777121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02687533749704695</v>
+        <v>0.01889170741074588</v>
       </c>
       <c r="C19">
-        <v>-0.06012665217201218</v>
+        <v>0.04439710334995497</v>
       </c>
       <c r="D19">
-        <v>0.09317206804541377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09644056037688208</v>
+      </c>
+      <c r="E19">
+        <v>-0.1151088979429366</v>
+      </c>
+      <c r="F19">
+        <v>-0.0548245402364513</v>
+      </c>
+      <c r="G19">
+        <v>0.03573103103203736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01995790994284358</v>
+        <v>0.01598916475990319</v>
       </c>
       <c r="C20">
-        <v>-0.04945304358719414</v>
+        <v>0.04027686308982006</v>
       </c>
       <c r="D20">
-        <v>0.01146388068579911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03880520369900872</v>
+      </c>
+      <c r="E20">
+        <v>-0.08656581509647242</v>
+      </c>
+      <c r="F20">
+        <v>-0.04762780326111305</v>
+      </c>
+      <c r="G20">
+        <v>0.06205996542692951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01375507536079104</v>
+        <v>0.01286388530236086</v>
       </c>
       <c r="C21">
-        <v>-0.0560233199968579</v>
+        <v>0.04426543386520092</v>
       </c>
       <c r="D21">
-        <v>0.03507241350450364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06434635416566294</v>
+      </c>
+      <c r="E21">
+        <v>-0.1367998125992158</v>
+      </c>
+      <c r="F21">
+        <v>-0.0772782611856789</v>
+      </c>
+      <c r="G21">
+        <v>0.08998891594091621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.002441627891848779</v>
+        <v>0.004087829864113842</v>
       </c>
       <c r="C22">
-        <v>-0.001011842603564967</v>
+        <v>0.02907625004775269</v>
       </c>
       <c r="D22">
-        <v>0.008648578508001057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05376576911913101</v>
+      </c>
+      <c r="E22">
+        <v>-0.05853856416837893</v>
+      </c>
+      <c r="F22">
+        <v>0.02831837629401005</v>
+      </c>
+      <c r="G22">
+        <v>0.05381542032968205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.00244765248346658</v>
+        <v>0.004193365587540789</v>
       </c>
       <c r="C23">
-        <v>-0.001031971556822588</v>
+        <v>0.02911053853929502</v>
       </c>
       <c r="D23">
-        <v>0.008637361485539742</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05309698954357559</v>
+      </c>
+      <c r="E23">
+        <v>-0.05886518051971448</v>
+      </c>
+      <c r="F23">
+        <v>0.02846569789802262</v>
+      </c>
+      <c r="G23">
+        <v>0.05389098299997953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03807348631460018</v>
+        <v>0.03684216429997268</v>
       </c>
       <c r="C24">
-        <v>-0.0500622025596151</v>
+        <v>0.05243118381898165</v>
       </c>
       <c r="D24">
-        <v>0.01014269074577313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02799585552034771</v>
+      </c>
+      <c r="E24">
+        <v>-0.05095582816885168</v>
+      </c>
+      <c r="F24">
+        <v>-0.04579789781010625</v>
+      </c>
+      <c r="G24">
+        <v>0.06533333290209423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04947645915300394</v>
+        <v>0.04441146122398446</v>
       </c>
       <c r="C25">
-        <v>-0.05948129676261063</v>
+        <v>0.0554976271316738</v>
       </c>
       <c r="D25">
-        <v>-0.001980993957697074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02492888009316106</v>
+      </c>
+      <c r="E25">
+        <v>-0.04165472297132815</v>
+      </c>
+      <c r="F25">
+        <v>-0.03677996076371169</v>
+      </c>
+      <c r="G25">
+        <v>0.07975448966875072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01879944028123334</v>
+        <v>0.01757961266424249</v>
       </c>
       <c r="C26">
-        <v>-0.01716973969029413</v>
+        <v>0.01644868786058501</v>
       </c>
       <c r="D26">
-        <v>0.009427678574858975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02866407558924557</v>
+      </c>
+      <c r="E26">
+        <v>-0.05777038792577784</v>
+      </c>
+      <c r="F26">
+        <v>-0.05064420430948361</v>
+      </c>
+      <c r="G26">
+        <v>0.04541410755864096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08900948837478348</v>
+        <v>0.1362524976847431</v>
       </c>
       <c r="C28">
-        <v>0.2534231657297905</v>
+        <v>-0.2589318845364266</v>
       </c>
       <c r="D28">
-        <v>-0.006852843588633115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02763463097528824</v>
+      </c>
+      <c r="E28">
+        <v>-0.05620260129966802</v>
+      </c>
+      <c r="F28">
+        <v>-0.02861733695866292</v>
+      </c>
+      <c r="G28">
+        <v>0.05370015776416802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008372098040251741</v>
+        <v>0.007837545334742251</v>
       </c>
       <c r="C29">
-        <v>-0.03135782547534324</v>
+        <v>0.02840148850712139</v>
       </c>
       <c r="D29">
-        <v>-0.005863137273253293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02174481263661855</v>
+      </c>
+      <c r="E29">
+        <v>-0.06333043314433283</v>
+      </c>
+      <c r="F29">
+        <v>-0.05743345841070618</v>
+      </c>
+      <c r="G29">
+        <v>0.08181142373169945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04752562793101959</v>
+        <v>0.04504897547379662</v>
       </c>
       <c r="C30">
-        <v>-0.04857412337505192</v>
+        <v>0.05648026637887785</v>
       </c>
       <c r="D30">
-        <v>0.08016367847174465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1060837970428686</v>
+      </c>
+      <c r="E30">
+        <v>-0.08548693606325826</v>
+      </c>
+      <c r="F30">
+        <v>-0.05527679311110481</v>
+      </c>
+      <c r="G30">
+        <v>0.06057697595711915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06214540358165109</v>
+        <v>0.06005720206557701</v>
       </c>
       <c r="C31">
-        <v>-0.04703084064294356</v>
+        <v>0.06202262455263147</v>
       </c>
       <c r="D31">
-        <v>-0.0443114677630454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01373723500680381</v>
+      </c>
+      <c r="E31">
+        <v>-0.07731330715193874</v>
+      </c>
+      <c r="F31">
+        <v>-0.01636688209709409</v>
+      </c>
+      <c r="G31">
+        <v>0.07655982354686847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003443276125106572</v>
+        <v>0.00889068126139753</v>
       </c>
       <c r="C32">
-        <v>-0.04119957876765641</v>
+        <v>0.0346640395629973</v>
       </c>
       <c r="D32">
-        <v>0.06078564405272143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05717898810883331</v>
+      </c>
+      <c r="E32">
+        <v>-0.06406426794971812</v>
+      </c>
+      <c r="F32">
+        <v>-0.05696554081033296</v>
+      </c>
+      <c r="G32">
+        <v>0.06366776971034076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0363965215939651</v>
+        <v>0.02961153083341356</v>
       </c>
       <c r="C33">
-        <v>-0.05712072675573278</v>
+        <v>0.05224670416624899</v>
       </c>
       <c r="D33">
-        <v>0.04249988233693163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07676727993393394</v>
+      </c>
+      <c r="E33">
+        <v>-0.09556336529846332</v>
+      </c>
+      <c r="F33">
+        <v>-0.0579063008460973</v>
+      </c>
+      <c r="G33">
+        <v>0.09660874218209782</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04584634125919419</v>
+        <v>0.04142329248944712</v>
       </c>
       <c r="C34">
-        <v>-0.06486490508450772</v>
+        <v>0.06273204111709783</v>
       </c>
       <c r="D34">
-        <v>0.02245356915516171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03869444488195729</v>
+      </c>
+      <c r="E34">
+        <v>-0.02308907975355205</v>
+      </c>
+      <c r="F34">
+        <v>-0.04780508228592285</v>
+      </c>
+      <c r="G34">
+        <v>0.07282854881210399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01810249667776114</v>
+        <v>0.0155723996480148</v>
       </c>
       <c r="C36">
-        <v>-0.01607891503142496</v>
+        <v>0.01352952139415096</v>
       </c>
       <c r="D36">
-        <v>-0.000772550280601132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02751352621173492</v>
+      </c>
+      <c r="E36">
+        <v>-0.06746085731677751</v>
+      </c>
+      <c r="F36">
+        <v>-0.0428342056447046</v>
+      </c>
+      <c r="G36">
+        <v>0.06339722267515667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03052967031033074</v>
+        <v>0.02432546624386362</v>
       </c>
       <c r="C38">
-        <v>-0.03274978202297661</v>
+        <v>0.02473527287156027</v>
       </c>
       <c r="D38">
-        <v>-0.01042729824971299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02277964007020728</v>
+      </c>
+      <c r="E38">
+        <v>-0.05686824872445139</v>
+      </c>
+      <c r="F38">
+        <v>-0.03596904261079764</v>
+      </c>
+      <c r="G38">
+        <v>0.04262588835729593</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04865533709085016</v>
+        <v>0.04244405513337127</v>
       </c>
       <c r="C39">
-        <v>-0.06074129581181547</v>
+        <v>0.06216642497037346</v>
       </c>
       <c r="D39">
-        <v>0.02161364453224159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05301329969197324</v>
+      </c>
+      <c r="E39">
+        <v>-0.05611603889121116</v>
+      </c>
+      <c r="F39">
+        <v>-0.06675645420360682</v>
+      </c>
+      <c r="G39">
+        <v>0.06216302761095142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01169382905339623</v>
+        <v>0.01481027115262036</v>
       </c>
       <c r="C40">
-        <v>-0.05404961593441055</v>
+        <v>0.038081439977589</v>
       </c>
       <c r="D40">
-        <v>0.01198017969411181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03191444776982582</v>
+      </c>
+      <c r="E40">
+        <v>-0.09684238640732101</v>
+      </c>
+      <c r="F40">
+        <v>-0.0298496674295858</v>
+      </c>
+      <c r="G40">
+        <v>0.09829575899868662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02420112554880061</v>
+        <v>0.02041483677203206</v>
       </c>
       <c r="C41">
-        <v>-0.01239419649483429</v>
+        <v>0.009383360556728726</v>
       </c>
       <c r="D41">
-        <v>0.003036692443170268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01980523777858348</v>
+      </c>
+      <c r="E41">
+        <v>-0.0690256155373665</v>
+      </c>
+      <c r="F41">
+        <v>-0.03713332140395932</v>
+      </c>
+      <c r="G41">
+        <v>0.04905114560605248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04549234485000765</v>
+        <v>0.03236070002984745</v>
       </c>
       <c r="C43">
-        <v>-0.03394069141745055</v>
+        <v>0.02497152252471476</v>
       </c>
       <c r="D43">
-        <v>0.02271429622561316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04796943906524923</v>
+      </c>
+      <c r="E43">
+        <v>-0.0851802620265842</v>
+      </c>
+      <c r="F43">
+        <v>-0.02887347458583615</v>
+      </c>
+      <c r="G43">
+        <v>0.07269901016434761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01774752716801901</v>
+        <v>0.01892950091018655</v>
       </c>
       <c r="C44">
-        <v>-0.07044717905039283</v>
+        <v>0.04794036975086702</v>
       </c>
       <c r="D44">
-        <v>0.00746968315963378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03687875492620014</v>
+      </c>
+      <c r="E44">
+        <v>-0.09297396098843116</v>
+      </c>
+      <c r="F44">
+        <v>-0.05633123028230452</v>
+      </c>
+      <c r="G44">
+        <v>0.04852587839214201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01253558130930113</v>
+        <v>0.01296782942255448</v>
       </c>
       <c r="C46">
-        <v>-0.0274391355822645</v>
+        <v>0.02950937257357779</v>
       </c>
       <c r="D46">
-        <v>-0.007525600188403996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01890199455412188</v>
+      </c>
+      <c r="E46">
+        <v>-0.07638933637190805</v>
+      </c>
+      <c r="F46">
+        <v>-0.06635758175712968</v>
+      </c>
+      <c r="G46">
+        <v>0.07799690147780115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09152599355914927</v>
+        <v>0.0936724516383851</v>
       </c>
       <c r="C47">
-        <v>-0.06773708374586095</v>
+        <v>0.07887799950736117</v>
       </c>
       <c r="D47">
-        <v>-0.04598031481638</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02236904069120593</v>
+      </c>
+      <c r="E47">
+        <v>-0.06768378127246405</v>
+      </c>
+      <c r="F47">
+        <v>-0.01977839327943217</v>
+      </c>
+      <c r="G47">
+        <v>0.07870783414325018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02052181947534168</v>
+        <v>0.01892612411471819</v>
       </c>
       <c r="C48">
-        <v>-0.01334524209116072</v>
+        <v>0.01619314425446126</v>
       </c>
       <c r="D48">
-        <v>-0.01536112014613957</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01457556666659098</v>
+      </c>
+      <c r="E48">
+        <v>-0.08063216216235686</v>
+      </c>
+      <c r="F48">
+        <v>-0.05754078610275647</v>
+      </c>
+      <c r="G48">
+        <v>0.06889095147924909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08502786148836589</v>
+        <v>0.0728007852173663</v>
       </c>
       <c r="C50">
-        <v>-0.08240268091989773</v>
+        <v>0.07469500492395882</v>
       </c>
       <c r="D50">
-        <v>-0.04426230666115812</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005188444509342065</v>
+      </c>
+      <c r="E50">
+        <v>-0.08283978512868168</v>
+      </c>
+      <c r="F50">
+        <v>0.01118162051900026</v>
+      </c>
+      <c r="G50">
+        <v>0.0867188507548331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0177586223533396</v>
+        <v>0.0124047034401085</v>
       </c>
       <c r="C51">
-        <v>-0.04929337444450697</v>
+        <v>0.03094135294586151</v>
       </c>
       <c r="D51">
-        <v>0.04627834221751263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05854652771948234</v>
+      </c>
+      <c r="E51">
+        <v>-0.05693513413082475</v>
+      </c>
+      <c r="F51">
+        <v>-0.06207537857454915</v>
+      </c>
+      <c r="G51">
+        <v>0.05879006015410205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08479967830329947</v>
+        <v>0.09824461294471165</v>
       </c>
       <c r="C53">
-        <v>-0.07668920688703937</v>
+        <v>0.08452423868303779</v>
       </c>
       <c r="D53">
-        <v>-0.06678692682289662</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06021274157990442</v>
+      </c>
+      <c r="E53">
+        <v>-0.07134058990038973</v>
+      </c>
+      <c r="F53">
+        <v>-0.02380491604712596</v>
+      </c>
+      <c r="G53">
+        <v>0.07144501453373014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03772928214535862</v>
+        <v>0.03105885398837954</v>
       </c>
       <c r="C54">
-        <v>-0.03467220107676235</v>
+        <v>0.03155580679808619</v>
       </c>
       <c r="D54">
-        <v>0.0001188065643411162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02870913663716427</v>
+      </c>
+      <c r="E54">
+        <v>-0.06717218825593363</v>
+      </c>
+      <c r="F54">
+        <v>-0.06245264204204756</v>
+      </c>
+      <c r="G54">
+        <v>0.08425793635082349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08109299803231659</v>
+        <v>0.09123587436778716</v>
       </c>
       <c r="C55">
-        <v>-0.05159418612725193</v>
+        <v>0.06597293524214845</v>
       </c>
       <c r="D55">
-        <v>-0.07220134269604277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06014004621644285</v>
+      </c>
+      <c r="E55">
+        <v>-0.04639457465570591</v>
+      </c>
+      <c r="F55">
+        <v>-0.002084160950122874</v>
+      </c>
+      <c r="G55">
+        <v>0.05309447994978951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1530860648170414</v>
+        <v>0.1555304642075832</v>
       </c>
       <c r="C56">
-        <v>-0.08060627404829342</v>
+        <v>0.09935135438009338</v>
       </c>
       <c r="D56">
-        <v>-0.06429751278969417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05532718034593834</v>
+      </c>
+      <c r="E56">
+        <v>-0.03692762609268217</v>
+      </c>
+      <c r="F56">
+        <v>0.01128270994986196</v>
+      </c>
+      <c r="G56">
+        <v>0.02599371542187162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05018419943099294</v>
+        <v>0.0324541520338452</v>
       </c>
       <c r="C58">
-        <v>-0.01003635168022955</v>
+        <v>0.01970366274284676</v>
       </c>
       <c r="D58">
-        <v>0.5088756491155736</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3960405526368853</v>
+      </c>
+      <c r="E58">
+        <v>-0.5548282065683737</v>
+      </c>
+      <c r="F58">
+        <v>0.4048584748645671</v>
+      </c>
+      <c r="G58">
+        <v>-0.5214457689289691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1236767187410802</v>
+        <v>0.1395953973792115</v>
       </c>
       <c r="C59">
-        <v>0.2061814251361229</v>
+        <v>-0.1927851435654836</v>
       </c>
       <c r="D59">
-        <v>0.02473745019962432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0300241794369706</v>
+      </c>
+      <c r="E59">
+        <v>-0.0295324050473863</v>
+      </c>
+      <c r="F59">
+        <v>-0.03188940591720694</v>
+      </c>
+      <c r="G59">
+        <v>-0.005615435081469893</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3007689296978378</v>
+        <v>0.271496336230022</v>
       </c>
       <c r="C60">
-        <v>-0.1100699212994328</v>
+        <v>0.1031965896611582</v>
       </c>
       <c r="D60">
-        <v>0.1987000284207733</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2430752738426475</v>
+      </c>
+      <c r="E60">
+        <v>0.2522401408405754</v>
+      </c>
+      <c r="F60">
+        <v>0.08052722825671743</v>
+      </c>
+      <c r="G60">
+        <v>0.05358728237307361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04725329843679341</v>
+        <v>0.04385367623901554</v>
       </c>
       <c r="C61">
-        <v>-0.05911495857962508</v>
+        <v>0.05750758497482037</v>
       </c>
       <c r="D61">
-        <v>0.0172609625954977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04452578727821412</v>
+      </c>
+      <c r="E61">
+        <v>-0.05705840573339846</v>
+      </c>
+      <c r="F61">
+        <v>-0.04918849150657844</v>
+      </c>
+      <c r="G61">
+        <v>0.07469274961553363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01804771352915805</v>
+        <v>0.01768658396594653</v>
       </c>
       <c r="C63">
-        <v>-0.03371100914144858</v>
+        <v>0.03104207793123432</v>
       </c>
       <c r="D63">
-        <v>-0.01573572126714871</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01902666898907142</v>
+      </c>
+      <c r="E63">
+        <v>-0.06933597688847623</v>
+      </c>
+      <c r="F63">
+        <v>-0.03333418573788752</v>
+      </c>
+      <c r="G63">
+        <v>0.07222496883616708</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05292626884302726</v>
+        <v>0.05821743288049681</v>
       </c>
       <c r="C64">
-        <v>-0.04953612842440121</v>
+        <v>0.05876657944395119</v>
       </c>
       <c r="D64">
-        <v>0.0128742515126733</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01215518274229592</v>
+      </c>
+      <c r="E64">
+        <v>-0.0471952210456107</v>
+      </c>
+      <c r="F64">
+        <v>-0.04789157311815751</v>
+      </c>
+      <c r="G64">
+        <v>0.05425247895754889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0803852569724257</v>
+        <v>0.0654126559379182</v>
       </c>
       <c r="C65">
-        <v>-0.02295300408415524</v>
+        <v>0.02530939337694746</v>
       </c>
       <c r="D65">
-        <v>0.05960315057621837</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09072733981814543</v>
+      </c>
+      <c r="E65">
+        <v>-0.05342986514597217</v>
+      </c>
+      <c r="F65">
+        <v>0.001624552908683652</v>
+      </c>
+      <c r="G65">
+        <v>0.01698715658222122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06237212735305071</v>
+        <v>0.05413427544620601</v>
       </c>
       <c r="C66">
-        <v>-0.08082668257845894</v>
+        <v>0.07807803608163043</v>
       </c>
       <c r="D66">
-        <v>0.04038734992909715</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0767777889940212</v>
+      </c>
+      <c r="E66">
+        <v>-0.07058865014642712</v>
+      </c>
+      <c r="F66">
+        <v>-0.05653511098108614</v>
+      </c>
+      <c r="G66">
+        <v>0.07349444640659339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0511308004980419</v>
+        <v>0.0446346624062402</v>
       </c>
       <c r="C67">
-        <v>-0.03246122988903265</v>
+        <v>0.02888352862009777</v>
       </c>
       <c r="D67">
-        <v>-0.01994238280606999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004814345026468625</v>
+      </c>
+      <c r="E67">
+        <v>-0.03302441497704326</v>
+      </c>
+      <c r="F67">
+        <v>-0.02457751938158189</v>
+      </c>
+      <c r="G67">
+        <v>0.03443563095762602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1230796171152698</v>
+        <v>0.1472308838981215</v>
       </c>
       <c r="C68">
-        <v>0.2802774682989965</v>
+        <v>-0.2438085860978262</v>
       </c>
       <c r="D68">
-        <v>-0.01079190991674116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01425635942976088</v>
+      </c>
+      <c r="E68">
+        <v>-0.04176795183497131</v>
+      </c>
+      <c r="F68">
+        <v>-0.005702116130585244</v>
+      </c>
+      <c r="G68">
+        <v>0.02487299799801169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09378680504191542</v>
+        <v>0.08927567641946879</v>
       </c>
       <c r="C69">
-        <v>-0.07258489307043711</v>
+        <v>0.09044755531737639</v>
       </c>
       <c r="D69">
-        <v>-0.04912495719066053</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01244754298019264</v>
+      </c>
+      <c r="E69">
+        <v>-0.06147053629246147</v>
+      </c>
+      <c r="F69">
+        <v>-0.05037635523027727</v>
+      </c>
+      <c r="G69">
+        <v>0.07679572514255358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1151826517350863</v>
+        <v>0.1421328458491432</v>
       </c>
       <c r="C71">
-        <v>0.2601385985981516</v>
+        <v>-0.2439329924666045</v>
       </c>
       <c r="D71">
-        <v>0.005226660875191968</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003183953715155571</v>
+      </c>
+      <c r="E71">
+        <v>-0.06077679938819163</v>
+      </c>
+      <c r="F71">
+        <v>-0.003432875355173528</v>
+      </c>
+      <c r="G71">
+        <v>0.05817741061646056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09930196541849977</v>
+        <v>0.1053374567277442</v>
       </c>
       <c r="C72">
-        <v>-0.03996431358111099</v>
+        <v>0.04709816451597496</v>
       </c>
       <c r="D72">
-        <v>0.003744320025749601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03704116974407467</v>
+      </c>
+      <c r="E72">
+        <v>-0.02038172903605653</v>
+      </c>
+      <c r="F72">
+        <v>-0.02293294731205634</v>
+      </c>
+      <c r="G72">
+        <v>0.09898819154495368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3863660180978309</v>
+        <v>0.3270284394775302</v>
       </c>
       <c r="C73">
-        <v>-0.03876442036349212</v>
+        <v>0.0632149129661122</v>
       </c>
       <c r="D73">
-        <v>0.4835334507500183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.49309082138339</v>
+      </c>
+      <c r="E73">
+        <v>0.4783251946819977</v>
+      </c>
+      <c r="F73">
+        <v>0.2385884372411974</v>
+      </c>
+      <c r="G73">
+        <v>0.02663660906979226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1071492268287772</v>
+        <v>0.1121947140671089</v>
       </c>
       <c r="C74">
-        <v>-0.09402145107913204</v>
+        <v>0.09260942144404839</v>
       </c>
       <c r="D74">
-        <v>-0.04795339892319977</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04608080393174685</v>
+      </c>
+      <c r="E74">
+        <v>-0.05633841234050312</v>
+      </c>
+      <c r="F74">
+        <v>0.007480874962238023</v>
+      </c>
+      <c r="G74">
+        <v>0.05146209368370935</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2557769183813906</v>
+        <v>0.2595330222916625</v>
       </c>
       <c r="C75">
-        <v>-0.08576208750990004</v>
+        <v>0.1200840628757165</v>
       </c>
       <c r="D75">
-        <v>-0.1490905900956077</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1518666384929142</v>
+      </c>
+      <c r="E75">
+        <v>-0.02271186647766204</v>
+      </c>
+      <c r="F75">
+        <v>0.04221015262509809</v>
+      </c>
+      <c r="G75">
+        <v>-0.04385649821413084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1157388092674961</v>
+        <v>0.1293798465365362</v>
       </c>
       <c r="C76">
-        <v>-0.07820765670560569</v>
+        <v>0.08941001658356108</v>
       </c>
       <c r="D76">
-        <v>-0.07721636871618151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07745595501765827</v>
+      </c>
+      <c r="E76">
+        <v>-0.07898571430762885</v>
+      </c>
+      <c r="F76">
+        <v>-0.01437454564750763</v>
+      </c>
+      <c r="G76">
+        <v>0.03592725142850801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08604189716646542</v>
+        <v>0.0699931728697977</v>
       </c>
       <c r="C77">
-        <v>-0.04205389001685416</v>
+        <v>0.05779402696819021</v>
       </c>
       <c r="D77">
-        <v>0.05716589611044572</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06456049228379793</v>
+      </c>
+      <c r="E77">
+        <v>-0.09556735517251214</v>
+      </c>
+      <c r="F77">
+        <v>-0.1809711120350281</v>
+      </c>
+      <c r="G77">
+        <v>-0.107393899040355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.05044030976159469</v>
+        <v>0.04888219645434965</v>
       </c>
       <c r="C78">
-        <v>-0.03737305839882901</v>
+        <v>0.05139763742826201</v>
       </c>
       <c r="D78">
-        <v>0.03466340090873878</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06731287544504777</v>
+      </c>
+      <c r="E78">
+        <v>-0.06476350382516684</v>
+      </c>
+      <c r="F78">
+        <v>-0.05036717864117829</v>
+      </c>
+      <c r="G78">
+        <v>0.06277744907859095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.0003132233652718422</v>
+        <v>0.0344035532363539</v>
       </c>
       <c r="C79">
-        <v>-0.0003150072275948476</v>
+        <v>0.04916561146368599</v>
       </c>
       <c r="D79">
-        <v>0.003304751512760039</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0820354841501344</v>
+      </c>
+      <c r="E79">
+        <v>-0.07209881259446958</v>
+      </c>
+      <c r="F79">
+        <v>0.02672672819277195</v>
+      </c>
+      <c r="G79">
+        <v>0.02953531332418765</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03968009832471094</v>
+        <v>0.03082433367835897</v>
       </c>
       <c r="C80">
-        <v>-0.05369526001189598</v>
+        <v>0.05247216367495813</v>
       </c>
       <c r="D80">
-        <v>0.03644026295959275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04395195260261026</v>
+      </c>
+      <c r="E80">
+        <v>-0.01434577999980187</v>
+      </c>
+      <c r="F80">
+        <v>-0.05218046021892983</v>
+      </c>
+      <c r="G80">
+        <v>0.002072653027373408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1431496200541977</v>
+        <v>0.1423411040176383</v>
       </c>
       <c r="C81">
-        <v>-0.07386395298573041</v>
+        <v>0.09160649531472781</v>
       </c>
       <c r="D81">
-        <v>-0.11792674495982</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1227639067072318</v>
+      </c>
+      <c r="E81">
+        <v>-0.06909462940292131</v>
+      </c>
+      <c r="F81">
+        <v>0.01988246476377369</v>
+      </c>
+      <c r="G81">
+        <v>-0.01028508633076981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2013525656859703</v>
+        <v>0.2318999963766571</v>
       </c>
       <c r="C82">
-        <v>-0.09087017110857956</v>
+        <v>0.1545108903840172</v>
       </c>
       <c r="D82">
-        <v>-0.1997541329810771</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2483201193494382</v>
+      </c>
+      <c r="E82">
+        <v>0.04161582542641835</v>
+      </c>
+      <c r="F82">
+        <v>-0.03498776923703469</v>
+      </c>
+      <c r="G82">
+        <v>0.06573385190852522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04430764168246183</v>
+        <v>0.03007521458815086</v>
       </c>
       <c r="C83">
-        <v>-0.03007449706797882</v>
+        <v>0.04474313573184498</v>
       </c>
       <c r="D83">
-        <v>0.0408005024733239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03334689954319116</v>
+      </c>
+      <c r="E83">
+        <v>-0.02528584372301731</v>
+      </c>
+      <c r="F83">
+        <v>-0.02292831788346582</v>
+      </c>
+      <c r="G83">
+        <v>-0.003821513655443263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001599441909738451</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0005599002267001485</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0008230767198884551</v>
+      </c>
+      <c r="E84">
+        <v>-0.003189324706640654</v>
+      </c>
+      <c r="F84">
+        <v>0.001715054750715869</v>
+      </c>
+      <c r="G84">
+        <v>0.0002639854895008499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2197665934822081</v>
+        <v>0.2033021816483793</v>
       </c>
       <c r="C85">
-        <v>-0.0931317932488515</v>
+        <v>0.1098592051556046</v>
       </c>
       <c r="D85">
-        <v>-0.1656507056402921</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1285371597534104</v>
+      </c>
+      <c r="E85">
+        <v>0.007581521227656814</v>
+      </c>
+      <c r="F85">
+        <v>0.1010570572712162</v>
+      </c>
+      <c r="G85">
+        <v>0.006283058532588471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0109481917565556</v>
+        <v>0.01443538548433544</v>
       </c>
       <c r="C86">
-        <v>-0.02892207002509335</v>
+        <v>0.01821029597970087</v>
       </c>
       <c r="D86">
-        <v>0.0468863899261361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06755264394527556</v>
+      </c>
+      <c r="E86">
+        <v>-0.08169142997958694</v>
+      </c>
+      <c r="F86">
+        <v>-0.0757209295070651</v>
+      </c>
+      <c r="G86">
+        <v>0.07177209656325821</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03002706690940305</v>
+        <v>0.02990006244829718</v>
       </c>
       <c r="C87">
-        <v>-0.001835099125529656</v>
+        <v>0.0129383946608845</v>
       </c>
       <c r="D87">
-        <v>0.08246916610759047</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08995574995064036</v>
+      </c>
+      <c r="E87">
+        <v>-0.1282021548616365</v>
+      </c>
+      <c r="F87">
+        <v>-0.0714184702185031</v>
+      </c>
+      <c r="G87">
+        <v>-0.004163230696119493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1104260006100247</v>
+        <v>0.09419531741822101</v>
       </c>
       <c r="C88">
-        <v>-0.08376084102489961</v>
+        <v>0.06702039215796719</v>
       </c>
       <c r="D88">
-        <v>-0.01599130111189202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01592176836159981</v>
+      </c>
+      <c r="E88">
+        <v>-0.05601474844593111</v>
+      </c>
+      <c r="F88">
+        <v>-0.04219222440949161</v>
+      </c>
+      <c r="G88">
+        <v>0.03231027831231267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1753628742862651</v>
+        <v>0.2121663309280475</v>
       </c>
       <c r="C89">
-        <v>0.3803282406711442</v>
+        <v>-0.3841483150885088</v>
       </c>
       <c r="D89">
-        <v>-0.03184762180848907</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01427326184719392</v>
+      </c>
+      <c r="E89">
+        <v>-0.07877585561807471</v>
+      </c>
+      <c r="F89">
+        <v>-0.08600329862253267</v>
+      </c>
+      <c r="G89">
+        <v>-0.002526924002385897</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1690214453885403</v>
+        <v>0.193669884855056</v>
       </c>
       <c r="C90">
-        <v>0.3342574169435775</v>
+        <v>-0.3114161685587993</v>
       </c>
       <c r="D90">
-        <v>-0.0404552474264596</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0177054742428999</v>
+      </c>
+      <c r="E90">
+        <v>-0.0569677271156998</v>
+      </c>
+      <c r="F90">
+        <v>-0.02707742005826076</v>
+      </c>
+      <c r="G90">
+        <v>0.01680474938160214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1890590524118345</v>
+        <v>0.1869433360954607</v>
       </c>
       <c r="C91">
-        <v>-0.1245794013120828</v>
+        <v>0.1398824272676749</v>
       </c>
       <c r="D91">
-        <v>-0.1356081338069753</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1284658862557332</v>
+      </c>
+      <c r="E91">
+        <v>-0.05031872471206703</v>
+      </c>
+      <c r="F91">
+        <v>0.01072503676447423</v>
+      </c>
+      <c r="G91">
+        <v>-0.002145355088717539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1603539282310901</v>
+        <v>0.178740909128385</v>
       </c>
       <c r="C92">
-        <v>0.2957386963943076</v>
+        <v>-0.2989484417836812</v>
       </c>
       <c r="D92">
-        <v>-0.02512294046501064</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01321687820303944</v>
+      </c>
+      <c r="E92">
+        <v>-0.06803242078412942</v>
+      </c>
+      <c r="F92">
+        <v>-0.05008902927247783</v>
+      </c>
+      <c r="G92">
+        <v>0.02685894554257788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1875362925569083</v>
+        <v>0.212904643643674</v>
       </c>
       <c r="C93">
-        <v>0.3382589146053523</v>
+        <v>-0.3212213588945552</v>
       </c>
       <c r="D93">
-        <v>-0.04690566517127329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02035594349638634</v>
+      </c>
+      <c r="E93">
+        <v>-0.04378533280402824</v>
+      </c>
+      <c r="F93">
+        <v>0.001641011769263931</v>
+      </c>
+      <c r="G93">
+        <v>0.03566416305374536</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3490286305200936</v>
+        <v>0.3471874245708416</v>
       </c>
       <c r="C94">
-        <v>-0.1326893286093317</v>
+        <v>0.1750106139959853</v>
       </c>
       <c r="D94">
-        <v>-0.397021626395501</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4013224911312727</v>
+      </c>
+      <c r="E94">
+        <v>0.007732863383383343</v>
+      </c>
+      <c r="F94">
+        <v>0.1140505024817477</v>
+      </c>
+      <c r="G94">
+        <v>-0.4370017484733796</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1254139290194578</v>
+        <v>0.09122894576872946</v>
       </c>
       <c r="C95">
-        <v>-0.04378001870060468</v>
+        <v>0.05321386133449809</v>
       </c>
       <c r="D95">
-        <v>0.2355265213826122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2033303568122708</v>
+      </c>
+      <c r="E95">
+        <v>0.1504801779368617</v>
+      </c>
+      <c r="F95">
+        <v>-0.7518649101895661</v>
+      </c>
+      <c r="G95">
+        <v>-0.496664060764577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1905039755431962</v>
+        <v>0.1856389135667861</v>
       </c>
       <c r="C98">
-        <v>-0.02992321214862426</v>
+        <v>0.0478215652349333</v>
       </c>
       <c r="D98">
-        <v>0.1759903309195397</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2005337194272246</v>
+      </c>
+      <c r="E98">
+        <v>0.1473628816761812</v>
+      </c>
+      <c r="F98">
+        <v>0.09097881748025143</v>
+      </c>
+      <c r="G98">
+        <v>0.07568759396569183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008153521552180028</v>
+        <v>0.00784143878046902</v>
       </c>
       <c r="C101">
-        <v>-0.03137656400963795</v>
+        <v>0.02793391783519649</v>
       </c>
       <c r="D101">
-        <v>-0.005632863597060975</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02165896274301871</v>
+      </c>
+      <c r="E101">
+        <v>-0.06401826058946526</v>
+      </c>
+      <c r="F101">
+        <v>-0.05817648222983807</v>
+      </c>
+      <c r="G101">
+        <v>0.08166712822253926</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1219059050079898</v>
+        <v>0.1261575015664818</v>
       </c>
       <c r="C102">
-        <v>-0.06488627232946224</v>
+        <v>0.09641853061244585</v>
       </c>
       <c r="D102">
-        <v>-0.04939058367177511</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05937634694676874</v>
+      </c>
+      <c r="E102">
+        <v>0.01350697007547658</v>
+      </c>
+      <c r="F102">
+        <v>-0.02436807972006403</v>
+      </c>
+      <c r="G102">
+        <v>-0.00300011352771104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
